--- a/parsed_output_of_asia_develon-ce.xlsx
+++ b/parsed_output_of_asia_develon-ce.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,12 +436,22 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Excavator Model </t>
+          <t xml:space="preserve"> Model </t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Engine Code </t>
+          <t xml:space="preserve"> Operating Weight </t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bucket Capacity (SAE HEPAED) </t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Engine Power (SAE j1349, net) </t>
         </is>
       </c>
     </row>
@@ -456,6 +466,16 @@
           <t xml:space="preserve"> --- </t>
         </is>
       </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> --- </t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> --- </t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -465,7 +485,17 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 99kW(132HP) @ 2,000 rpm </t>
+          <t xml:space="preserve"> 20,100 kg </t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.86 m³ </t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 121 kW (165 PS, 163 HP) @2,000 rpm </t>
         </is>
       </c>
     </row>
@@ -477,6 +507,16 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 13,520 kg </t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.76 m³ </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t xml:space="preserve"> 100 kW (136 PS) @ 2,000 rpm </t>
         </is>
       </c>
@@ -489,6 +529,16 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.24 m³ </t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t xml:space="preserve"> 99kW(132HP) @ 2,000 rpm </t>
         </is>
       </c>
@@ -501,6 +551,16 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.24 m³ </t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t xml:space="preserve"> 99kW(132HP) @ 2,000 rpm </t>
         </is>
       </c>
@@ -513,6 +573,16 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 18,320 kg </t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.8 m³ </t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t xml:space="preserve"> 121/1,900 kW/rpm </t>
         </is>
       </c>
@@ -525,6 +595,16 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t xml:space="preserve"> 18.5~19.86 ton </t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.76~0.8 m³ </t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t xml:space="preserve"> 116/1,900 kW/rpm </t>
         </is>
       </c>
@@ -532,12 +612,22 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Excavator Model </t>
+          <t xml:space="preserve"> Model </t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Engine Code </t>
+          <t xml:space="preserve"> Operating Weight </t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Bucket Capacity (SAE HEPAED) </t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Engine Power (SAE j1349, net) </t>
         </is>
       </c>
     </row>
@@ -552,98 +642,188 @@
           <t xml:space="preserve"> --- </t>
         </is>
       </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> --- </t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> --- </t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DX350LC-7K </t>
+          <t xml:space="preserve"> DX210-7B </t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 209.1/1,800 kW/rpm </t>
+          <t xml:space="preserve"> 20,100 kg </t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.86 m³ </t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 121 kW (165 PS, 163 HP) @2,000 rpm </t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DX380LC-7K </t>
+          <t xml:space="preserve"> DX150-7B </t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 236.1 kW @ 1,800 rpm </t>
+          <t xml:space="preserve"> 13,520 kg </t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.76 m³ </t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 100 kW (136 PS) @ 2,000 rpm </t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DX360LCA-7M </t>
+          <t xml:space="preserve"> DX160-7B </t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 233/1,800 kW/rpm </t>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.24 m³ </t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 99kW(132HP) @ 2,000 rpm </t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DX530LC-7K </t>
+          <t xml:space="preserve"> DX140-7B </t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 289 kW (387.6 hp) </t>
+          <t xml:space="preserve"> - </t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.24 m³ </t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 99kW(132HP) @ 2,000 rpm </t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DX350LC-7K </t>
+          <t xml:space="preserve"> DX190-7 </t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 209.1/1,800 kW/rpm </t>
+          <t xml:space="preserve"> 18,320 kg </t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.8 m³ </t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 121/1,900 kW/rpm </t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Excavator Model </t>
+          <t xml:space="preserve"> DX190A-7 </t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Engine Code </t>
+          <t xml:space="preserve"> 18.5~19.86 ton </t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 0.76~0.8 m³ </t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 116/1,900 kW/rpm </t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> --- </t>
+          <t xml:space="preserve"> DX350LC-7K </t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t xml:space="preserve"> --- </t>
+          <t xml:space="preserve"> 36,800 kg </t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.49 m³ </t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 209.1/1,800 kW/rpm </t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DX380LCA-7M </t>
+          <t xml:space="preserve"> DX380LC-7K </t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 40.2 ton </t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 1.25 – 2.32 m³ </t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t xml:space="preserve"> 236.1 kW @ 1,800 rpm </t>
         </is>
@@ -652,36 +832,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> DX350LC-7K </t>
+          <t xml:space="preserve"> DX530LC-7K </t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 209.1/1,800 kW/rpm </t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DX530LC-7K </t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 289 kW (387.6 hp) </t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> DX360LCA-7M </t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 233/1,800 kW/rpm </t>
+          <t xml:space="preserve"> 50.6 ton </t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 2.14 m³ </t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 289 kW (387.6 HP) </t>
         </is>
       </c>
     </row>
